--- a/biology/Médecine/Nombre_de_reproduction_de_base/Nombre_de_reproduction_de_base.xlsx
+++ b/biology/Médecine/Nombre_de_reproduction_de_base/Nombre_de_reproduction_de_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En épidémiologie, le nombre de reproduction de base ou 
           R
             0
     {\displaystyle R_{0}}
- (ratio 0) d'une infection peut être défini comme le nombre moyen attendu de cas directement générés par un cas dans une population où tous les individus sont sensibles à l'infection[1],[2].
+ (ratio 0) d'une infection peut être défini comme le nombre moyen attendu de cas directement générés par un cas dans une population où tous les individus sont sensibles à l'infection,.
 C'est un paramètre permettant de modéliser l'évolution d'une épidémie au fil du temps, en supposant que le facteur pathogène ne mute pas et que l'immunité acquise dure au-delà de la période épidémique.
 </t>
         </is>
@@ -516,7 +528,9 @@
           <t>Définition et propriété de base</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
           R
@@ -526,13 +540,49 @@
           R
             0
     {\displaystyle R_{0}}
-[3].
-Croissance ou décroissance exponentielle
+.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Définition et propriété de base</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Croissance ou décroissance exponentielle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Le 
           R
             0
     {\displaystyle R_{0}}
- [est] le nombre moyen de personnes qu’une personne contagieuse peut infecter[4]. »
+ [est] le nombre moyen de personnes qu’une personne contagieuse peut infecter. »
 Supposons qu'un « patient zéro » se trouve d'une manière ou d'une autre en position de contaminer son environnement, le mécanisme de propagation de l'infection sera par hypothèse le suivant en moyenne :
 Au premier rang de transmission, 
           R
@@ -570,7 +620,7 @@
           )
             n
     {\displaystyle (R_{0})^{n}}
- individus seront infectés ; et ainsi de suite[5].
+ individus seront infectés ; et ainsi de suite.
 Le nombre de personnes infectées varie donc exponentiellement.
 Une propriété importante de ce 
           R
@@ -594,14 +644,49 @@
         &lt;
         1
     {\displaystyle R_{0}&lt;1}
-, la décroissance sera exponentielle et l'épidémie va s'éteindre.
-Nombre de reproduction effectif
+, la décroissance sera exponentielle et l'épidémie va s'éteindre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Définition et propriété de base</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nombre de reproduction effectif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 En réalité, le 
           R
             0
     {\displaystyle R_{0}}
  ne décrit l'évolution d'une maladie qu'à ses tout débuts. 
-« Ce taux s’applique, et se calcule à partir d’une population qui est entièrement susceptible d’être infectée, c’est-à-dire qui n’a pas encore été vaccinée ni immunisée contre un agent infectieux[4]. »
+« Ce taux s’applique, et se calcule à partir d’une population qui est entièrement susceptible d’être infectée, c’est-à-dire qui n’a pas encore été vaccinée ni immunisée contre un agent infectieux. »
 Lorsqu'une fraction 
         (
         1
@@ -636,9 +721,44 @@
 , on montre que la courbe de contamination est bien approchée par une courbe logistique. Au fur et à mesure qu'une fraction de plus en plus importante de la population est touchée, le 
         R
     {\displaystyle R}
- effectif diminue et finit par devenir inférieur à l'unité : la vitesse de propagation diminue ; et à partir d'un certain point, c'est la décroissance qui devient exponentielle, et l'épidémie s'éteint d'elle-même[6],[7],[8].
-Seuil d'immunité collective
-Le 
+ effectif diminue et finit par devenir inférieur à l'unité : la vitesse de propagation diminue ; et à partir d'un certain point, c'est la décroissance qui devient exponentielle, et l'épidémie s'éteint d'elle-même.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Définition et propriété de base</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Seuil d'immunité collective</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 
           R
             0
     {\displaystyle R_{0}}
@@ -681,34 +801,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Nombre_de_reproduction_de_base</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ratio 0 et politique sanitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mesures sanitaires
-La modélisation de base est que, en moyenne, un individu infectieux établit 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mesures sanitaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La modélisation de base est que, en moyenne, un individu infectieux établit 
         β
     {\displaystyle \beta }
  contacts infectieux par unité de temps, pendant une période infectieuse moyenne de 
@@ -757,8 +882,43 @@
             c
     {\displaystyle \delta _{c}}
  de la période contaminante.
-Mesures sociales
-Le facteur 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ratio 0 et politique sanitaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mesures sociales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le facteur 
         β
     {\displaystyle \beta }
 , en revanche[Information douteuse], est une donnée sociologique. Cette formule simple suggère différentes manières de réduire 
@@ -771,7 +931,7 @@
  :
 en réduisant le nombre de contacts par unité de temps (par exemple rester à la maison si l'infection nécessite un contact avec les autres pour se propager) ;
 ou en réduisant la proportion de contacts qui produisent une infection (par exemple avec le port d'équipement de protection).
-En isolant les deux facteurs précédents, le taux peut finalement être écrit de manière équivalente, sous la forme [9]
+En isolant les deux facteurs précédents, le taux peut finalement être écrit de manière équivalente, sous la forme 
           R
             0
         =
@@ -790,8 +950,43 @@
     {\displaystyle T}
  est la transmissibilité, c'est-à-dire la probabilité d'infection lors d'un contact.
 Cette formulation est parlante, et permet de comprendre les différentes stratégies utilisées pour maîtriser une épidémie, mais est sans utilité pratique pour ce qui est des modélisations quantitatives de sa modélisation.
-Effets d'une politique sanitaire
-Une stratégie de prévention consiste à donner à la population concernée un 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ratio 0 et politique sanitaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Effets d'une politique sanitaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Une stratégie de prévention consiste à donner à la population concernée un 
           R
             0
     {\displaystyle R_{0}}
@@ -809,11 +1004,80 @@
     {\displaystyle R_{0}}
  :
 Rechercher activement les personnes contagieuses, et les isoler en quarantaine obligatoire ;
-Appeler à une vigilance accrue en matière d'hygiène.
-Observation directe
-Le nombre de reproduction de base peut être estimé en examinant les chaînes de transmission détaillées, ou par séquençage génomique. Cependant, il est le plus souvent calculé à l'aide de modèles épidémiologiques[10].
-Mesure du ratio 0
-Sur une courbe épidémiologique décrivant le nombre de nouveaux cas et tracée dans un repère semi-logarithmique, dans ce cas idéal, on verra dans un premier temps la courbe monter suivant une droite croissante (phase de croissance exponentielle), puis s'infléchir, et descendre suivant la pente inverse (phase de décroissance exponentielle).
+Appeler à une vigilance accrue en matière d'hygiène.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ratio 0 et politique sanitaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Observation directe</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de reproduction de base peut être estimé en examinant les chaînes de transmission détaillées, ou par séquençage génomique. Cependant, il est le plus souvent calculé à l'aide de modèles épidémiologiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ratio 0 et politique sanitaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mesure du ratio 0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur une courbe épidémiologique décrivant le nombre de nouveaux cas et tracée dans un repère semi-logarithmique, dans ce cas idéal, on verra dans un premier temps la courbe monter suivant une droite croissante (phase de croissance exponentielle), puis s'infléchir, et descendre suivant la pente inverse (phase de décroissance exponentielle).
 Comme discuté ci-dessous, il est possible d'estimer le 
           R
             0
@@ -833,8 +1097,43 @@
         f
     {\displaystyle f}
  de la population », ne peut suivre ce modèle que si la population a un périmètre défini, et est à la fois homogène, et isolée du reste du monde. Une immunité collective, acquise à l'échelle d'une région, peut néanmoins coïncider avec la contamination d'une région voisine non encore atteinte, déclenchant un nouveau pic de contamination à l'échelle nationale ; et dans ce cas, le signal du « pic » et sa symétrie théorique apparaîtront beaucoup plus brouillés par l'enchevêtrement des progressions géographiques.
-Exemples de calcul
-Le 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ratio 0 et politique sanitaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Exemples de calcul</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 
           R
             0
     {\displaystyle R_{0}}
@@ -842,9 +1141,44 @@
           R
             0
     {\displaystyle R_{0}}
- se révèle difficile[11].
-Caractère fluctuant du ratio 0
-Le 
+ se révèle difficile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ratio 0 et politique sanitaire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Caractère fluctuant du ratio 0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 
           R
             0
     {\displaystyle R_{0}}
@@ -867,34 +1201,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Nombre_de_reproduction_de_base</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Ratio 0 et modélisation épidémiologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vitesse de croissance de l'épidémie
-Pendant une épidémie, généralement le nombre d'infections diagnostiquées 
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vitesse de croissance de l'épidémie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant une épidémie, généralement le nombre d'infections diagnostiquées 
         N
         (
         t
@@ -948,8 +1287,43 @@
     {\displaystyle N}
  peut être interprété indifféremment comme le nombre cumulé de diagnostics (y compris les individus qui se sont rétablis) ou le nombre actuel de cas d'infection ; le taux de croissance logarithmique est le même pour l'une ou l'autre définition.
 En pratique, en début d'épidémie, la lecture est plus sûre sur le nombre cumulé de cas, qui porte sur des quantités plus importantes et a de ce fait des fluctuations moins importantes. En revanche, pour apprécier des pentes instantanées en cours d'épidémie, la mesure n'est généralement possible que sur le nombre de nouveaux cas.
-Lien avec l'évolution temporelle
-Les segments en droite ligne constatés dans un repère semi-logarithmique permettent de donner une première estimation du 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ratio 0 et modélisation épidémiologique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lien avec l'évolution temporelle</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les segments en droite ligne constatés dans un repère semi-logarithmique permettent de donner une première estimation du 
           R
             0
     {\displaystyle R_{0}}
@@ -1053,8 +1427,43 @@
         θ
     {\displaystyle \theta }
 .
-Temps de doublement
-En croissance exponentielle, 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ratio 0 et modélisation épidémiologique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Temps de doublement</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En croissance exponentielle, 
         K
     {\displaystyle K}
  est lié au temps de doublement 
@@ -1148,8 +1557,43 @@
                   0
               )
     {\displaystyle t_{2}=\theta .{\frac {\ln(2)}{\ln(R_{0})}}}
-Vitesse de récession de l'épidémie
-Lorsque la vague épidémique s'apaise, le seuil d'immunité collectif 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nombre_de_reproduction_de_base</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ratio 0 et modélisation épidémiologique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vitesse de récession de l'épidémie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque la vague épidémique s'apaise, le seuil d'immunité collectif 
         P
         =
         1
